--- a/biology/Médecine/Université_de_l'École_de_médecine_du_Nord_de_l'Ontario/Université_de_l'École_de_médecine_du_Nord_de_l'Ontario.xlsx
+++ b/biology/Médecine/Université_de_l'École_de_médecine_du_Nord_de_l'Ontario/Université_de_l'École_de_médecine_du_Nord_de_l'Ontario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_de_l%27%C3%89cole_de_m%C3%A9decine_du_Nord_de_l%27Ontario</t>
+          <t>Université_de_l'École_de_médecine_du_Nord_de_l'Ontario</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Université de l'École de médecine du Nord de l'Ontario ou l'Université de l'EMNO est une université de médecine francophone située dans la province canadienne de l'Ontario. Il a pour mandat à la fois de former les médecins et de contribuer aux soins dans les communautés urbaines, rurales et éloignées du Nord de l'Ontario, et possède des campus à Sudbury et à Thunder Bay. L'école a été créée à l'origine dans le cadre d'un partenariat entre l'Université Laurentienne de Sudbury et l'Université Lakehead de Thunder Bay, avant de devenir une université autonome en avril 2022[1],[2],[3].
-La série médicale Hard Rock Medical sur TVOntario est vaguement basée sur ENMO[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Université de l'École de médecine du Nord de l'Ontario ou l'Université de l'EMNO est une université de médecine francophone située dans la province canadienne de l'Ontario. Il a pour mandat à la fois de former les médecins et de contribuer aux soins dans les communautés urbaines, rurales et éloignées du Nord de l'Ontario, et possède des campus à Sudbury et à Thunder Bay. L'école a été créée à l'origine dans le cadre d'un partenariat entre l'Université Laurentienne de Sudbury et l'Université Lakehead de Thunder Bay, avant de devenir une université autonome en avril 2022.
+La série médicale Hard Rock Medical sur TVOntario est vaguement basée sur ENMO.
 </t>
         </is>
       </c>
